--- a/DDLTest/Excel/CustomTypes_自定义类型.xlsx
+++ b/DDLTest/Excel/CustomTypes_自定义类型.xlsx
@@ -646,7 +646,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -753,7 +753,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4:E6"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
